--- a/AD010_内部定義/BB030_テーブル設計書/BB030080_コード種類.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030080_コード種類.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACC54D2-D7C4-4AD5-AF6F-D2E34C801B45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5258F64-891D-4CDE-AE8C-7E3B637668D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="4750" windowWidth="21020" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="22380" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -349,24 +349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NVARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日時型</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATETIMEOFFSET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4バイト整数</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,10 +364,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">DECIMAL </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コード種類</t>
     <rPh sb="3" eb="5">
       <t>シュルイ</t>
@@ -401,6 +379,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>日時型</t>
+  </si>
+  <si>
+    <t>日時型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動4バイト</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLSERIAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動8バイト</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERIAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4バイト実数</t>
+    <rPh sb="4" eb="6">
+      <t>ジッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DOUBLE PRECISION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE kind (</t>
+  </si>
+  <si>
     <t xml:space="preserve"> SERIAL</t>
   </si>
   <si>
@@ -417,6 +450,9 @@
   </si>
   <si>
     <t>(255)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIMESTAMP WITH TIME ZONE</t>
   </si>
   <si>
     <t>(1000)</t>
@@ -796,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -804,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -836,12 +872,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44333</v>
+        <v>44394</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -894,9 +931,8 @@
       <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="str">
-        <f>"CREATE TABLE "&amp;基本情報!B2&amp;" ("</f>
-        <v>CREATE TABLE code_kind (</v>
+      <c r="J1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -911,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>19</v>
@@ -930,10 +966,10 @@
         <v xml:space="preserve">    id</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M11" si="0">IF(G2="無"," NOT NULL","")</f>
@@ -975,10 +1011,10 @@
         <v>,   start_date</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
@@ -1020,10 +1056,10 @@
         <v>,   end_date</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
@@ -1065,10 +1101,10 @@
         <v>,   locale_id</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -1108,10 +1144,10 @@
         <v>,   creator</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
@@ -1134,7 +1170,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -1153,10 +1189,10 @@
         <v>,   created_date</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
@@ -1196,10 +1232,10 @@
         <v>,   updater</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
@@ -1222,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -1241,10 +1277,10 @@
         <v>,   update_date</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
@@ -1286,10 +1322,10 @@
         <v>,   note</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
@@ -1331,10 +1367,10 @@
         <v>,   name</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
@@ -1365,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD538CA0-48EE-4F2D-A563-3D443B5340B0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1398,13 +1434,14 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -1412,6 +1449,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <f t="shared" ref="A3:A10" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1426,6 +1464,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1440,44 +1479,92 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
